--- a/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.325775279560368</v>
+        <v>6.793971679778167</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.238856383249486</v>
+        <v>5.034369711238172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03477966536153352</v>
+        <v>0.1654182056996659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.314787141148054</v>
+        <v>-0.891314642710346</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3109649006012123</v>
+        <v>0.3241383718410432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2353624607641872</v>
+        <v>0.2627813958343109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.001679065319428376</v>
+        <v>0.01838972965219629</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05805635365989575</v>
+        <v>-0.03973711498744605</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.29467242287813</v>
+        <v>15.37234146022388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.40429386477901</v>
+        <v>14.04607124280547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.597282006096757</v>
+        <v>8.696920826435855</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.583505629041066</v>
+        <v>6.472985061473375</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9472196311450647</v>
+        <v>0.9393951527225726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9482889389634135</v>
+        <v>0.9671977506779246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5429285119281093</v>
+        <v>0.5441357398631375</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3742455658567849</v>
+        <v>0.3631390329244377</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.069774034211402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.56387478875297</v>
+        <v>7.56387478875298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5342154189587631</v>
@@ -749,7 +749,7 @@
         <v>0.5532125336030069</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5565752446148121</v>
+        <v>0.556575244614813</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.12355604487674</v>
+        <v>7.629905917082079</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.888420124561281</v>
+        <v>4.728651406874448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.800971140057128</v>
+        <v>4.41574775748959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.294580908413356</v>
+        <v>4.475143661987097</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2952268509173778</v>
+        <v>0.3180006769683005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2890986094942545</v>
+        <v>0.2921133132547072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.294879494705963</v>
+        <v>0.2697754003961256</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2830541592351956</v>
+        <v>0.2965785836318695</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.47533981627132</v>
+        <v>15.81834304576092</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.95186518030858</v>
+        <v>11.94769572475611</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.38536355186375</v>
+        <v>11.9701898714452</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.44917456057028</v>
+        <v>10.61689650110902</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7848303340546995</v>
+        <v>0.795289346424211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.898719567029382</v>
+        <v>0.9402777339177404</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8595709315902029</v>
+        <v>0.928061743975549</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8910937837765405</v>
+        <v>0.8865635307281019</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.956164020765383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.476217794901039</v>
+        <v>8.476217794901036</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.376924624000869</v>
@@ -849,7 +849,7 @@
         <v>0.3273705675688461</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5438145208286473</v>
+        <v>0.5438145208286471</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.741163017760188</v>
+        <v>2.182235021801463</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.9268045381723</v>
+        <v>1.808785713122434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.13825515633657</v>
+        <v>1.149969913777763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.753098632952528</v>
+        <v>4.767526403176392</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08872751048398776</v>
+        <v>0.1058561972296238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08716342226072256</v>
+        <v>0.07999916530863045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06814662482068531</v>
+        <v>0.06696288353095613</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2633073806889406</v>
+        <v>0.267044977102706</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.46253586383616</v>
+        <v>10.75532074504401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.96088659766466</v>
+        <v>11.00209258863686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.464987390148368</v>
+        <v>9.140051335340319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.45066683589871</v>
+        <v>12.19812829794576</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6847304081786574</v>
+        <v>0.7188800337163612</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6729963611067802</v>
+        <v>0.6734286567735962</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6482047437453319</v>
+        <v>0.6832495464239318</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.931848812113759</v>
+        <v>0.9056183902145891</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.867226057178723</v>
+        <v>6.634092054315785</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.586921022097146</v>
+        <v>4.453039233970077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.153865665787906</v>
+        <v>3.969203235159076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.848833802153252</v>
+        <v>3.230357243060249</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3149768295660227</v>
+        <v>0.2974168858273349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2037826837444535</v>
+        <v>0.2003833255221857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2268960051614926</v>
+        <v>0.2262977579869549</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1319886682816425</v>
+        <v>0.1570834320152845</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.54127328930402</v>
+        <v>14.62544061774368</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.31061139136909</v>
+        <v>12.69002095961717</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.12730607138582</v>
+        <v>11.18215367621459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.679161892117181</v>
+        <v>10.11001284123163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8186023891998656</v>
+        <v>0.7985914367858817</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6722192369399071</v>
+        <v>0.6889356299509469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7864021804362709</v>
+        <v>0.8026440743661364</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5523685262173077</v>
+        <v>0.6112997696687223</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.567466188188945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.617736339065247</v>
+        <v>6.617736339065239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5207795035316926</v>
@@ -1049,7 +1049,7 @@
         <v>0.4191240300319288</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3920153425350609</v>
+        <v>0.3920153425350604</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.976775313950836</v>
+        <v>8.25893953820545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.109239061424576</v>
+        <v>6.19531996061392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.628356526355123</v>
+        <v>4.584284692252886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.928249987469161</v>
+        <v>4.905750541744579</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3892414892627907</v>
+        <v>0.392773752342283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3359863455031767</v>
+        <v>0.3407629198510513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2786321525553289</v>
+        <v>0.2768332066712745</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2714671581239183</v>
+        <v>0.2802963235105216</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.34138038979451</v>
+        <v>12.39400499031741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.893062033714607</v>
+        <v>10.41009934366055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.380938286885055</v>
+        <v>8.436304823511499</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.328411031561824</v>
+        <v>8.483376187647904</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6777110904244519</v>
+        <v>0.6633609883055446</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6100501992964105</v>
+        <v>0.6278289004340827</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.566453499688481</v>
+        <v>0.578663998886875</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5282720038343555</v>
+        <v>0.5382666987692529</v>
       </c>
     </row>
     <row r="19">
